--- a/app/Licenciatura_em_Geografia_Pos_Laboral.xlsx
+++ b/app/Licenciatura_em_Geografia_Pos_Laboral.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="379">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -212,9 +212,6 @@
     <t>Clementina Domingos Tsung</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -278,9 +275,6 @@
     <t>Adelina Valente</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>Cartao de Eleitor</t>
   </si>
   <si>
@@ -308,9 +302,6 @@
     <t>Helena Diangulo Matangue</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110100897758F</t>
   </si>
   <si>
@@ -596,9 +587,6 @@
     <t>Rosa Jorge Maposse</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>100500586278J</t>
   </si>
   <si>
@@ -639,9 +627,6 @@
   </si>
   <si>
     <t>Albertina F. Matimbe</t>
-  </si>
-  <si>
-    <t>Distrito Municipal Kamubukwana</t>
   </si>
   <si>
     <t>Casado</t>
@@ -2474,7 +2459,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2490,7 +2475,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2506,7 +2491,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2522,7 +2507,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2538,7 +2523,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2553,9 +2538,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2563,7 +2546,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2574,7 +2557,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2583,7 +2566,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2595,7 +2578,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2603,7 +2586,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2699,7 +2682,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2742,7 +2725,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3069,7 +3052,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3085,7 +3068,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3101,7 +3084,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3117,7 +3100,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3133,7 +3116,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3148,9 +3131,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3158,7 +3139,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3169,7 +3150,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3178,7 +3159,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3190,7 +3171,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3198,7 +3179,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3294,7 +3275,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3337,7 +3318,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3664,7 +3645,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3680,7 +3661,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3696,7 +3677,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3712,7 +3693,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3728,7 +3709,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3743,9 +3724,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3753,7 +3732,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3764,7 +3743,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3773,7 +3752,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3785,7 +3764,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3793,7 +3772,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3889,7 +3868,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3932,7 +3911,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4259,7 +4238,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4275,7 +4254,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4291,7 +4270,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4307,7 +4286,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4323,7 +4302,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4338,9 +4317,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4348,7 +4325,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4359,7 +4336,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4368,7 +4345,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4380,7 +4357,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4388,7 +4365,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4484,7 +4461,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4527,7 +4504,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4854,7 +4831,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4870,7 +4847,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4886,7 +4863,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4902,7 +4879,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4918,7 +4895,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4933,9 +4910,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4943,7 +4918,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4954,7 +4929,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4963,7 +4938,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4975,7 +4950,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4983,7 +4958,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5079,7 +5054,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5122,7 +5097,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5449,7 +5424,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5465,7 +5440,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5481,7 +5456,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5497,7 +5472,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5513,7 +5488,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5528,9 +5503,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5538,7 +5511,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5549,7 +5522,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5558,7 +5531,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5570,7 +5543,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5578,7 +5551,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5674,7 +5647,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5717,7 +5690,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6044,7 +6017,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6060,7 +6033,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6076,7 +6049,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6092,7 +6065,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6108,7 +6081,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6123,9 +6096,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6133,7 +6104,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6144,7 +6115,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6153,7 +6124,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6165,7 +6136,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6269,7 +6240,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6312,7 +6283,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6639,7 +6610,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6655,7 +6626,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6671,7 +6642,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6687,7 +6658,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6703,7 +6674,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6718,9 +6689,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6728,7 +6697,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6739,7 +6708,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6748,7 +6717,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6760,7 +6729,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6768,7 +6737,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6864,7 +6833,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6907,7 +6876,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7234,7 +7203,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7250,7 +7219,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7266,7 +7235,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7282,7 +7251,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7298,7 +7267,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7313,9 +7282,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>177</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7323,7 +7290,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7334,7 +7301,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7343,7 +7310,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7355,7 +7322,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7363,7 +7330,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7459,7 +7426,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7502,7 +7469,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7829,7 +7796,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7845,7 +7812,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7861,7 +7828,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7877,7 +7844,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7893,7 +7860,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7908,9 +7875,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7918,7 +7883,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7929,7 +7894,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7938,7 +7903,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7950,7 +7915,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7958,7 +7923,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8054,7 +8019,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8097,7 +8062,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8503,9 +8468,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8513,7 +8476,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8524,7 +8487,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8533,7 +8496,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8545,7 +8508,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8553,7 +8516,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8649,7 +8612,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8692,7 +8655,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9019,7 +8982,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9035,7 +8998,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9051,7 +9014,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9067,7 +9030,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9083,7 +9046,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9098,9 +9061,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>192</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9108,7 +9069,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9119,7 +9080,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9128,7 +9089,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9140,7 +9101,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9148,7 +9109,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9244,7 +9205,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9287,7 +9248,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9614,7 +9575,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9630,7 +9591,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9646,7 +9607,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9662,7 +9623,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9678,7 +9639,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9693,9 +9654,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9703,7 +9662,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9714,7 +9673,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9723,7 +9682,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9735,7 +9694,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9743,7 +9702,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9839,7 +9798,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9882,7 +9841,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10209,7 +10168,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10225,7 +10184,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10241,7 +10200,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10257,7 +10216,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10273,7 +10232,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10288,9 +10247,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10298,7 +10255,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10309,7 +10266,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10318,7 +10275,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10330,7 +10287,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10338,7 +10295,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10434,7 +10391,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10477,7 +10434,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10804,7 +10761,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10820,7 +10777,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10836,7 +10793,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10852,7 +10809,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10868,7 +10825,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10883,9 +10840,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10893,7 +10848,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10904,7 +10859,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10913,7 +10868,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10925,7 +10880,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10933,7 +10888,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11029,7 +10984,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11072,7 +11027,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11399,7 +11354,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11415,7 +11370,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11431,7 +11386,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11447,7 +11402,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11463,7 +11418,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11478,9 +11433,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11488,7 +11441,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11499,7 +11452,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11508,7 +11461,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11520,7 +11473,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11528,7 +11481,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11624,7 +11577,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11667,7 +11620,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11994,7 +11947,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12010,7 +11963,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12026,7 +11979,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12042,7 +11995,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12058,7 +12011,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12073,9 +12026,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12083,7 +12034,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12094,7 +12045,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12103,7 +12054,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12115,7 +12066,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12123,7 +12074,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12219,7 +12170,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12262,7 +12213,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12589,7 +12540,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12605,7 +12556,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12621,7 +12572,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12637,7 +12588,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12653,7 +12604,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12668,9 +12619,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12678,7 +12627,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12689,7 +12638,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12698,7 +12647,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12710,7 +12659,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12718,7 +12667,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12814,7 +12763,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12857,7 +12806,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13184,7 +13133,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13200,7 +13149,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13216,7 +13165,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13232,7 +13181,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13248,7 +13197,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13263,9 +13212,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13273,7 +13220,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13284,7 +13231,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13293,7 +13240,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13305,7 +13252,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13313,7 +13260,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13409,7 +13356,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13452,7 +13399,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13779,7 +13726,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13795,7 +13742,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13811,7 +13758,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13827,7 +13774,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13843,7 +13790,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13858,9 +13805,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>192</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13868,7 +13813,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13879,7 +13824,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13888,7 +13833,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13900,7 +13845,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13908,7 +13853,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14004,7 +13949,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14047,7 +13992,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14374,7 +14319,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14390,7 +14335,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14406,7 +14351,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14422,7 +14367,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14451,9 +14396,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14461,7 +14404,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14472,7 +14415,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14481,7 +14424,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14493,7 +14436,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14597,7 +14540,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14640,7 +14583,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14967,7 +14910,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14983,7 +14926,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14999,7 +14942,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15015,7 +14958,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15031,7 +14974,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15046,9 +14989,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15056,7 +14997,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15067,7 +15008,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15076,7 +15017,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15088,7 +15029,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15096,7 +15037,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15192,7 +15133,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15235,7 +15176,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15562,7 +15503,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15578,7 +15519,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15594,7 +15535,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15610,7 +15551,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15626,7 +15567,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15641,9 +15582,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15651,7 +15590,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15662,7 +15601,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15671,7 +15610,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15683,7 +15622,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15691,7 +15630,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15787,7 +15726,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15830,7 +15769,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16157,7 +16096,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16173,7 +16112,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16189,7 +16128,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16205,7 +16144,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16221,7 +16160,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16236,9 +16175,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16246,7 +16183,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16257,7 +16194,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16266,7 +16203,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16278,7 +16215,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16286,7 +16223,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16382,7 +16319,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16425,7 +16362,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16752,7 +16689,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16768,7 +16705,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16784,7 +16721,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16800,7 +16737,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16816,7 +16753,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16831,9 +16768,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>192</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16841,7 +16776,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16852,7 +16787,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16861,7 +16796,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16873,7 +16808,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16881,7 +16816,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16977,7 +16912,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17020,7 +16955,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17347,7 +17282,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17363,7 +17298,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17379,7 +17314,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17395,7 +17330,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17411,7 +17346,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17426,9 +17361,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>192</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17436,7 +17369,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17447,7 +17380,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17456,7 +17389,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17468,7 +17401,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17476,7 +17409,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17572,7 +17505,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17615,7 +17548,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17942,7 +17875,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17958,7 +17891,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17974,7 +17907,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17990,7 +17923,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18006,7 +17939,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18021,9 +17954,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18031,7 +17962,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18042,7 +17973,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18051,7 +17982,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18063,7 +17994,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18071,7 +18002,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18167,7 +18098,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18210,7 +18141,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18537,7 +18468,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18553,7 +18484,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18569,7 +18500,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18585,7 +18516,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18601,7 +18532,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18616,9 +18547,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18626,7 +18555,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18637,7 +18566,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18646,7 +18575,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18658,7 +18587,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18666,7 +18595,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18762,7 +18691,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18805,7 +18734,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19132,7 +19061,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19148,7 +19077,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19164,7 +19093,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19180,7 +19109,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19196,7 +19125,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19211,9 +19140,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19221,7 +19148,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19232,7 +19159,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19241,7 +19168,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19253,7 +19180,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19261,7 +19188,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19357,7 +19284,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19400,7 +19327,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19727,7 +19654,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19743,7 +19670,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19759,7 +19686,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19775,7 +19702,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19791,7 +19718,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19806,9 +19733,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19816,7 +19741,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19827,7 +19752,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19836,7 +19761,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19848,7 +19773,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19856,7 +19781,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19952,7 +19877,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19995,7 +19920,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20322,7 +20247,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20338,7 +20263,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20354,7 +20279,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20370,7 +20295,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20386,7 +20311,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20401,9 +20326,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20411,7 +20334,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20422,7 +20345,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20431,7 +20354,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20443,7 +20366,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20451,7 +20374,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20547,7 +20470,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20590,7 +20513,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20917,7 +20840,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20933,7 +20856,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20949,7 +20872,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20965,7 +20888,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20981,7 +20904,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20996,9 +20919,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21006,7 +20927,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21017,7 +20938,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21026,7 +20947,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21038,7 +20959,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21046,7 +20967,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21142,7 +21063,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21185,7 +21106,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21512,7 +21433,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21528,7 +21449,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21544,7 +21465,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21560,7 +21481,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21576,7 +21497,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21591,9 +21512,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21601,7 +21520,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21612,7 +21531,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21621,7 +21540,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21633,7 +21552,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21641,7 +21560,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21737,7 +21656,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21780,7 +21699,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22107,7 +22026,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22123,7 +22042,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22139,7 +22058,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22155,7 +22074,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22171,7 +22090,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22186,9 +22105,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22196,7 +22113,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22207,7 +22124,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22216,7 +22133,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22228,7 +22145,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22236,7 +22153,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22332,7 +22249,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22375,7 +22292,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22702,7 +22619,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22718,7 +22635,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22734,7 +22651,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22750,7 +22667,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22766,7 +22683,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22781,9 +22698,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>192</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22791,7 +22706,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22802,7 +22717,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22811,7 +22726,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22823,7 +22738,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22831,7 +22746,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22927,7 +22842,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22970,7 +22885,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23297,7 +23212,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23313,7 +23228,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23329,7 +23244,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23345,7 +23260,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23361,7 +23276,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23376,9 +23291,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23386,7 +23299,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23397,7 +23310,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23406,7 +23319,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23418,7 +23331,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23426,7 +23339,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23522,7 +23435,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23565,7 +23478,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23892,7 +23805,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23908,7 +23821,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23924,7 +23837,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23940,7 +23853,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23956,7 +23869,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23971,9 +23884,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23981,7 +23892,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23992,7 +23903,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24001,7 +23912,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24013,7 +23924,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24021,7 +23932,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24117,7 +24028,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24160,7 +24071,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24487,7 +24398,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24503,7 +24414,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24519,7 +24430,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24535,7 +24446,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24551,7 +24462,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24566,9 +24477,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24576,7 +24485,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24587,7 +24496,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24596,7 +24505,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24608,7 +24517,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24616,7 +24525,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24712,7 +24621,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24755,7 +24664,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25082,7 +24991,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25098,7 +25007,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25114,7 +25023,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25130,7 +25039,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25146,7 +25055,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25161,9 +25070,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25171,7 +25078,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25182,7 +25089,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25191,7 +25098,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25203,7 +25110,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25211,7 +25118,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25307,7 +25214,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25350,7 +25257,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25677,7 +25584,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25693,7 +25600,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25709,7 +25616,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25725,7 +25632,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25741,7 +25648,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25756,9 +25663,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25766,7 +25671,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25777,7 +25682,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25786,7 +25691,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25798,7 +25703,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25806,7 +25711,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25902,7 +25807,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25945,7 +25850,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26328,7 +26233,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26344,7 +26249,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26360,7 +26265,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -26376,7 +26281,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -26392,7 +26297,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -26407,9 +26312,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -26417,7 +26320,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -26428,7 +26331,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -26437,7 +26340,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -26449,7 +26352,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -26457,7 +26360,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -26553,7 +26456,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -26596,7 +26499,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26923,7 +26826,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26939,7 +26842,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26955,7 +26858,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -26971,7 +26874,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -26987,7 +26890,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -27002,9 +26905,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -27012,7 +26913,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27023,7 +26924,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27032,7 +26933,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27044,7 +26945,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -27052,7 +26953,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -27148,7 +27049,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -27191,7 +27092,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -27518,7 +27419,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -27534,7 +27435,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -27550,7 +27451,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -27566,7 +27467,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -27582,7 +27483,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -27597,9 +27498,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -27607,7 +27506,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27618,7 +27517,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27627,7 +27526,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27639,7 +27538,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -27647,7 +27546,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -27743,7 +27642,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -27786,7 +27685,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28113,7 +28012,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -28129,7 +28028,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -28145,7 +28044,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -28161,7 +28060,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -28177,7 +28076,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -28192,9 +28091,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -28202,7 +28099,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -28213,7 +28110,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -28222,7 +28119,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -28234,7 +28131,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -28242,7 +28139,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -28338,7 +28235,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -28381,7 +28278,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28708,7 +28605,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -28724,7 +28621,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -28740,7 +28637,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -28756,7 +28653,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -28772,7 +28669,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -28787,9 +28684,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -28797,7 +28692,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -28808,7 +28703,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -28817,7 +28712,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -28829,7 +28724,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -28837,7 +28732,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -28933,7 +28828,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -28976,7 +28871,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
